--- a/ExampleData/example5_310-430_at-percent_comp.xlsx
+++ b/ExampleData/example5_310-430_at-percent_comp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/787946d61a7c1773/Documents/Austenite_Calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/787946d61a7c1773/Documents/GitHub/AusteniteCalculator/ExampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{EF635EC5-87BA-4702-9B93-E22EE3962F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EE635B-411D-400C-8E7F-3FFC69198E2D}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{EF635EC5-87BA-4702-9B93-E22EE3962F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A1F775-AFE9-47CC-8D00-BC9811FB3F6E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01ED234C-2520-4F6F-B023-DC4E12EBCF2D}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,22 +167,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +205,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>268396</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A47CB-05F4-4B48-9569-13BD0A7E53FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="91722"/>
+          <a:ext cx="3782062" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57849789-CB46-49CA-86FE-31A642443F52}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,13 +580,13 @@
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="9"/>
       <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
@@ -539,10 +595,10 @@
         <v>15</v>
       </c>
       <c r="K1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -828,295 +884,293 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>13</v>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <f>((E3/B2)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
+        <v>56.516978550906529</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3">
+        <f>((H3/B2)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
+        <v>46.616358598086578</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3">
+        <f>((K3/B2)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
+        <v>83.016750602145834</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12:N19" si="0">((N3/B2)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
+        <v>77.106078536092255</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f>((E3/B2)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
-        <v>56.516978550906529</v>
+        <f>((E4/B3)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
+        <v>25.558165746963326</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <f>((H3/B2)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
-        <v>46.616358598086578</v>
+        <f>((H4/B3)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
+        <v>27.021181260345944</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>((K3/B2)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
-        <v>83.016750602145834</v>
+        <f>((K4/B3)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
+        <v>16.983249397854173</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f>((N3/B2)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>77.106078536092255</v>
+        <f t="shared" si="0"/>
+        <v>18.854658536476887</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <f>((E4/B3)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
-        <v>25.558165746963326</v>
+        <f>((E5/B4)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
+        <v>17.924855702130149</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <f>((H4/B3)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
-        <v>27.021181260345944</v>
+        <f t="shared" ref="H14:H19" si="1">((H5/B4)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
+        <v>20.255235192432107</v>
       </c>
       <c r="J14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3">
-        <f>((K4/B3)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
-        <v>16.983249397854173</v>
+        <f>((K5/B4)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="3">
-        <f>((N4/B3)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>18.854658536476887</v>
+        <f t="shared" si="0"/>
+        <v>0.92796114742308111</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <f>((E5/B4)/(($E$3/$B$2)+($E$4/$B$3)+($E$5/$B$4)))*100</f>
-        <v>17.924855702130149</v>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15:H20" si="0">((H5/B4)/(($H$3/$B$2)+($H$4/$B$3)+($H$5/$B$4)+($H$6/$B$5)+($H$7/$B$6)+($H$8/$B$7)+($H$9/$B$8)+($H$10/$B$9)))*100</f>
-        <v>20.255235192432107</v>
+        <f t="shared" si="1"/>
+        <v>1.9672432711741461</v>
       </c>
       <c r="J15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f>((K5/B4)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
+        <f t="shared" ref="K15:K19" si="2">((K6/B5)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
-        <f>((N5/B4)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>0.92796114742308111</v>
+        <f t="shared" si="0"/>
+        <v>0.99138708408938991</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8861423579784198</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>1.9672432711741461</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:K20" si="1">((K6/B5)/(($K$3/$B$2)+($K$4/$B$3)+($K$5/$B$4)+($K$6/$B$5)+($K$7/$B$6)+($K$8/$B$7)+($K$9/$B$8)+($K$10/$B$9)))*100</f>
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <f>((N6/B5)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>0.99138708408938991</v>
+        <v>1.4544638675192159</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1247649116618645</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>2.8861423579784198</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
-        <f>((N7/B6)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>1.4544638675192159</v>
+        <v>0.54414943261046955</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8508402005382505E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>1.1247649116618645</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
-        <f>((N8/B7)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>0.54414943261046955</v>
+        <v>7.0336183412801595E-2</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0566006315548293E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>7.8508402005382505E-2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="3">
-        <f>((N9/B8)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>7.0336183412801595E-2</v>
+        <v>5.0965212375891675E-2</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <f>SUM(E12:E19)</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0566006315548293E-2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
+        <f>SUM(H12:H19)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>6</v>
+        <f>SUM(K12:K19)</f>
+        <v>100</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="N20" s="3">
-        <f>((N10/B9)/(($N$3/$B$2)+($N$4/$B$3)+($N$5/$B$4)+($N$6/$B$5)+($N$7/$B$6)+($N$8/$B$7)+($N$9/$B$8)+($N$10/$B$9)))*100</f>
-        <v>5.0965212375891675E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3">
-        <f>SUM(E13:E20)</f>
-        <v>100</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3">
-        <f>SUM(H13:H20)</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="3">
-        <f>SUM(K13:K20)</f>
-        <v>100</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="3">
-        <f>SUM(N13:N20)</f>
+        <f>SUM(N12:N19)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -1129,5 +1183,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>